--- a/00_metadaten/chemie-lernprogramme_metadaten.xlsx
+++ b/00_metadaten/chemie-lernprogramme_metadaten.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Aggregatzustand, Chemieunterricht, Anfangsunterricht, Teilchenmodell, Teilchenebene, Stoffebene, Zustandsänderung, fest, flüssig, gasförmig, Gefrieren, Schmelzen, Sieden, Kondensieren, Sublimieren, Resublimieren, Dichteanomalie </t>
   </si>
   <si>
-    <t xml:space="preserve">Aggregatzustaende_und_Zustandsaenderungen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Aggregatzustaende_und_Zustandsaenderungen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/zustandsaenderer/index.html</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Salzbildung, Verdrängungsreaktionen, Metalle, Nichtmetalle, Reduktionsmittel, Oxidationsmittel, Aldehyde, Oxidierbarkeit, Reduktionsmittelstärke, Fehling-Probe, Silberspiegel-Probe, schwarzes Kupferoxid, Kaliumdichromat, Kaliumpermanganat </t>
   </si>
   <si>
-    <t xml:space="preserve">Anorganische_und_organische_Redoxreaktionen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Anorganische_und_organische_Redoxreaktionen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/oxidaser-online/index.html</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Atomradius, Van-der-Waals-Radius, kovalenter Atomradius, Kästchen, Muster, Vektorgrafik, Koordinatensystem, Trends im Periodensystem der Elemente, PSE, CPK-Farbschema</t>
   </si>
   <si>
-    <t xml:space="preserve">Atomradien.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Atomradien.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/atomradienvergleicher/index.html</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Periodensystem der Elemente, PSE, Ordnungszahl, Protonenzahl, Metalle, Nichtmetalle, Alkalimetalle, Erdalkalimetalle, Chalkogene, Halogene, Edelgase </t>
   </si>
   <si>
-    <t xml:space="preserve">Aufbau_des_Periodensystems.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Aufbau_des_Periodensystems.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/pseler-online/index.html</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Massenwirkungsgesetz, Gleichgewichtskonstante, Stoffmengenkonzentration, Partialdruck, Mol pro Liter, Pascal</t>
   </si>
   <si>
-    <t xml:space="preserve">Aufstellen_des_Massenwirkungsgesetzes.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Aufstellen_des_Massenwirkungsgesetzes.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/gleichgewichtskonstanter/index.html</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Aldehyd, Keton, Carbonsäure, Alkohol, Nomenklatur, IUPAC </t>
   </si>
   <si>
-    <t xml:space="preserve">Benennung_sauerstoffhaltiger_organischer_Verbindungen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Benennung_sauerstoffhaltiger_organischer_Verbindungen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/stoffklassenbenenner/index.html</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">Alkane, homologe Reihe, kettenförmige Alkane, verzweigte Alkane, Gerüstisomere, Methygruppe, Ethylgruppe </t>
   </si>
   <si>
-    <t xml:space="preserve">Benennung_von_Alkanen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Benennung_von_Alkanen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/alkanbenenner-online/index.html</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Metallbindung, metallische Bindung, Elektronegativitätsdifferenz, Delta EN, Ionenbindung, Atombindung, Elektronenpaarbindung, polare Bindung, Bindungspolarität, Salze, Moleküle, molekulare Stoffe, Van Ketelaar Diagramm </t>
   </si>
   <si>
-    <t xml:space="preserve">Bindungstyp_ermitteln.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Bindungstyp_ermitteln.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/bindungstypermittler/index.html</t>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Disaccharide, Saccharose, Haushaltszucker, Kristallzucker, Rübenzucker, Fruchtzucker, Cellobiose, Maltose, Isomaltose, Isomaltulose, Trehalose, Lactose, Halbacetal, Vollacetal, Halbketal, Vollketal, glykosidische Bindung </t>
   </si>
   <si>
-    <t xml:space="preserve">Disaccharide.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Disaccharide.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/disaccharider-online/index.html</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Chemisches Gleichgewicht, Druckabhängigkeit </t>
   </si>
   <si>
-    <t xml:space="preserve">Druckabhaengigkeit_des_chemischen_Gleichgewichts.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Druckabhaengigkeit_des_chemischen_Gleichgewichts.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/gleichgewichtdruecker-online/index.html</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Valenzstrichformel, Strukturformel, Keilstrichschreibweise, bindendes Elektronenpaar, freies Elektronenpaar, Einfachbindung, Doppelbindung, Aminogruppe, Hydroxygruppe, Methylgruppe </t>
   </si>
   <si>
-    <t xml:space="preserve">Einfache_Valenzstrichformeln_zusammensetzen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Einfache_Valenzstrichformeln_zusammensetzen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/strukturformler-online/index.html</t>
@@ -217,7 +217,7 @@
     <t xml:space="preserve">Halbzellenpotenzial, Halbzellenpotential, Elektromotorische Kraft, EMK, elektrochemische Spannungsreihe, Elektronendruckreihe, Primärelement, Sekundärelement, Batterie, Akkumulator, galvanische Zelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Elektrochemie.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Elektrochemie.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/elektrochemer-online/index.html</t>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Periodensystem, Valenzelektronenkonfiguration, Orbitale, Atombau</t>
   </si>
   <si>
-    <t xml:space="preserve">Elektronenbesetzung.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Elektronenbesetzung.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/elektronenbesetzer/index.html</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">Elektronendruckreihe, Elektromototische Kraft, EMK, Redoxpotential, Halbzellenpotetial, Elektronendruck, Anode, Kathode, Stromfluss, Spannung</t>
   </si>
   <si>
-    <t xml:space="preserve">Elektronendruckreihe.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Elektronendruckreihe.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/elektronendruckreiher/index.html</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">EPA-Modell, VSEPR-Modell, Elektronenpaar-Abstoßung, Orbitale, Atomorbitale, Molekülorbitale, räumlicher Bau, Geometrie, Molekülgeometrie; Chiralität</t>
   </si>
   <si>
-    <t xml:space="preserve">Elektronenpaar-Abstossungs-Modell.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Elektronenpaar-Abstossungs-Modell.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/elektronenpaar_abstosser/index.html</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Energiewandler, Lebewesen, Energieerhaltung, Energieentwertung, Solarzelle, Brennstoffzelle, Fotosynthese, Solarkollektor, Akkumulator, Generator, Turbine, Elektromotor </t>
   </si>
   <si>
-    <t xml:space="preserve">Energiewandler.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Energiewandler.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/energiewandler-online/index.html</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">Enzym, Biokatalysator, aktives Zentrum, Substrat, Kosubstrat, allosterisch, kompetitiv, Hydrolyse</t>
   </si>
   <si>
-    <t xml:space="preserve">Enzyme_benennen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Enzyme_benennen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/enzymbenenner/index.html</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Farbstoffe, Farbstoffklassen, Chromophor, Auxochrom, Antiauxochrom, Azofarbstoffe, Chemie, Lernprogramme, Übungsaufgaben</t>
   </si>
   <si>
-    <t xml:space="preserve">Farbstoffe.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Farbstoffe.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/farbstoffermittler-online/index.html</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Fettsäuren, gesättigte, ungesättigte, Anzahl der Doppelbindungen, Sättigungsgrad, Schmelzpunkte, räumlicher Bau </t>
   </si>
   <si>
-    <t xml:space="preserve">Fettsaeuren.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Fettsaeuren.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/fettsaeurer-online/index.html</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">Hexose, Aldose, Ketose, D-Zucker, L-Zucker, Fischer-Projektion, RS-Stereoisomerie, Enantiomere, Diastereomere </t>
   </si>
   <si>
-    <t xml:space="preserve">Hexosen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Hexosen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/hexoser-online/index.html</t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve">Molekülbetrachter, 3D-Viewer, 3D-Moleküle, Strukturen </t>
   </si>
   <si>
-    <t xml:space="preserve">Interaktiver_Betrachter_fuer_3D-Strukturen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Interaktiver_Betrachter_fuer_3D-Strukturen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/3dmolekuele/index.html</t>
@@ -367,7 +367,7 @@
     <t xml:space="preserve">Ionenradius, Ionisierungsenergie, Elektronenaffinität, Kästchen, Muster, Vektorgrafik, Koordinatensystem, Trends im Periodensystem der Elemente, PSE</t>
   </si>
   <si>
-    <t xml:space="preserve">Ionenradien.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Ionenradien.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/ionenradienvergleicher/index.html</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Katalysator, homogene Katalyse, heterogene Katalyse, Kinetik, Reaktionskinetik </t>
   </si>
   <si>
-    <t xml:space="preserve">Katalyse.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Katalyse.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/katalyser-online/index.html</t>
@@ -397,7 +397,7 @@
     <t xml:space="preserve">Kohlenstoffkreislauf, Klimawandel, CO2-Emission, Erderwärmung, Gesteinsbildung, Treibhauseffekt </t>
   </si>
   <si>
-    <t xml:space="preserve">Kohlenstoffkreislauf.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Kohlenstoffkreislauf.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/kohlenstoffkreislaeufer-online/index.html</t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve">Organische Chemie, Konstitutionsisomerie, Isomerie, Gerüstisomerie, funktionelle Isomerie</t>
   </si>
   <si>
-    <t xml:space="preserve">Konstitutionsisomerie.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Konstitutionsisomerie.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/isomerer/index.html</t>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">Chemisches Gleichgewicht, Konzentrationsabhängigkeit </t>
   </si>
   <si>
-    <t xml:space="preserve">Konzentrationsabhaengigkeit_des_chemischen_Gleichgewichts.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Konzentrationsabhaengigkeit_des_chemischen_Gleichgewichts.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/gleichgewichtkonzentrierer-online/index.html</t>
@@ -442,7 +442,7 @@
     <t xml:space="preserve">chemisches Gleichgewicht, Wasserstandsgleichgewicht, dynamisches Gleichgewicht, Wasserstandsmodell, Pipettenheber, Gleichgewichtskonstante, Reaktionsgeschwindigkeit der Hin- und Rückreaktion </t>
   </si>
   <si>
-    <t xml:space="preserve">Modellversuch_Wasserstandsgleichgewicht.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Modellversuch_Wasserstandsgleichgewicht.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/gleichgewichtmodeller-online/index.html</t>
@@ -457,7 +457,7 @@
     <t xml:space="preserve">Mol, Stoffmenge, Stöchiometrie, Molare Masse, Molares Volumen, Avogadro-Konstante, Normvolumen, ideales Gas </t>
   </si>
   <si>
-    <t xml:space="preserve">Molare_Groessen_berechnen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Molare_Groessen_berechnen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/molrechner-online/index.html</t>
@@ -469,7 +469,7 @@
     <t xml:space="preserve">Molrechner, Stöchiometrie, quantitative Aspekte chemischer Reaktionen, Stoffmengenverhältnis</t>
   </si>
   <si>
-    <t xml:space="preserve">Molare_Umrechnungen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Molare_Umrechnungen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/stoechiometrie/index.html</t>
@@ -484,7 +484,7 @@
     <t xml:space="preserve">Moleküle, molekulare Stoffe, Nomenklatur</t>
   </si>
   <si>
-    <t xml:space="preserve">Molekuelformeln_benennen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Molekuelformeln_benennen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/molekuelformelbenenner/index.html</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">Molekülvisualisierung, Strukturformel, räumlicher Bau, Bindungsbildung, Elektronenpaarbindung, Atombindung, Molekül, Molekülion, Elektronenpaar-Abstoßungsmodell, VSEPR, elementare Nichtmetalle, Nichtmetalloxide, Nichtmetallhydride, Sauerstoffsäuren </t>
   </si>
   <si>
-    <t xml:space="preserve">Molekuelstrukturen_fuer_Elemente_im_PSE.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Molekuelstrukturen_fuer_Elemente_im_PSE.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/molekuelbildner/index.html</t>
@@ -514,7 +514,7 @@
     <t xml:space="preserve">Monosaccharid, Triose, Tetrose, Pentose, Hexose, Aldose, Ketose, Enantiomere, Diastereomere, D, L</t>
   </si>
   <si>
-    <t xml:space="preserve">Monosacharide.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Monosacharide.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/monosaccharider/index.html</t>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">Nernstsche Gleichung, Halbzelle, Halbzellenpotenzial, Elektromotorische Kraft, EMK, Konzentrationsabhängigkeit, Elektrochemie </t>
   </si>
   <si>
-    <t xml:space="preserve">Nernstsche_Gleichung.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Nernstsche_Gleichung.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/nernster-online/index.html</t>
@@ -544,7 +544,7 @@
     <t xml:space="preserve">Oxidationszahl, binäre, ternäre Verbindung </t>
   </si>
   <si>
-    <t xml:space="preserve">Oxidationszahl_ermitteln.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Oxidationszahl_ermitteln.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/ozer-online/index.html</t>
@@ -559,7 +559,7 @@
     <t xml:space="preserve">pH-Wert, starke und schwache Säuren, pKS-Wert, pKA-Wert, Säurestärke, Protolysegrad </t>
   </si>
   <si>
-    <t xml:space="preserve">pH-Wert_Berechnung.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/pH-Wert_Berechnung.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/phwert-online/index.html</t>
@@ -574,7 +574,7 @@
     <t xml:space="preserve">Peptidbindung, Glycosidische Bindung, Polyester, Polymide, Polyurethane, Polykondensation, Polymerisation, Polyaddition, Nukleinsäuren, DNA, RNA, Polysaccharide, Naturstoffe, Kunststoffe, Nährstoffe, Nährestoffbausteine, Primärstruktur, Sekundärstruktur, Tertiärstruktur, Doppelhelix </t>
   </si>
   <si>
-    <t xml:space="preserve">Polymere_Kunststoffe_Polypeptide_Polysaccharide_Nukleinsaeuren.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Polymere_Kunststoffe_Polypeptide_Polysaccharide_Nukleinsaeuren.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/polymerer-online/index.html</t>
@@ -589,7 +589,7 @@
     <t xml:space="preserve">Protolysegrad, starke, schwache, Säuren, Säurestärke, pks-Wert</t>
   </si>
   <si>
-    <t xml:space="preserve">Protolysegrad.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Protolysegrad.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/protolysegrader/index.html</t>
@@ -604,7 +604,7 @@
     <t xml:space="preserve">Protonendruckreihe, Säurestärke, Protolysegrad, exotherm, exergonisch, Reaktionsrichtung, Säure-Base-Reaktion, Donator-Akzeptor-Reaktion, korrespondierende Säure-Base-Paare</t>
   </si>
   <si>
-    <t xml:space="preserve">Protonendruckreihe.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Protonendruckreihe.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/protonendruckreiher/index.html</t>
@@ -619,7 +619,7 @@
     <t xml:space="preserve">Säure-Base-Reaktion, Protonenübergang, Protonenübertragung, Säure, Base, Arrhenius, Brönsted, Lewis </t>
   </si>
   <si>
-    <t xml:space="preserve">Protonenuebergaenge.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Protonenuebergaenge.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/protonierer-online/index.html</t>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">Periodensystem, Lernspiel</t>
   </si>
   <si>
-    <t xml:space="preserve">PSE-Puzzle.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/PSE-Puzzle.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/pse_puzzle/index.html</t>
@@ -649,7 +649,7 @@
     <t xml:space="preserve">Puffer, Henderson-Hasselbalch-Gleichung</t>
   </si>
   <si>
-    <t xml:space="preserve">Puffer-Loesungen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Puffer-Loesungen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/pufferer/index.html</t>
@@ -664,7 +664,7 @@
     <t xml:space="preserve">Reaktionsmechanismen, Addition, Substitution, Nukleophil, Elektrophil, radikalisch</t>
   </si>
   <si>
-    <t xml:space="preserve">Reaktionsmechanismen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Reaktionsmechanismen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/mechanismer-online/index.html</t>
@@ -679,7 +679,7 @@
     <t xml:space="preserve">Zucker, Kohlenhydrate, Aldosen, Stereoisomere, Hexosen, Pyranose, D-Form, L-Form, Enantionmere, Diastereomere</t>
   </si>
   <si>
-    <t xml:space="preserve">Ringfoermige_D-Aldopyranosen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Ringfoermige_D-Aldopyranosen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/pyranoser/index.html</t>
@@ -691,7 +691,7 @@
     <t xml:space="preserve">Veranschaulicht einfache Redoxreaktionen am Beispiel von Salzbildungsreaktionen sowie von Verdrängungsreaktionen der Metalle und Nichtmetalle in verschiedenen Darstellungsformen</t>
   </si>
   <si>
-    <t xml:space="preserve">Salzbildung_und_Verdraengungsreaktionen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Salzbildung_und_Verdraengungsreaktionen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/oxidierer/index.html</t>
@@ -706,7 +706,7 @@
     <t xml:space="preserve">Salz, Ionenverbindung, Nomenklatur, Benennung</t>
   </si>
   <si>
-    <t xml:space="preserve">Salze_benennen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Salze_benennen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/salzbenenner/index.html</t>
@@ -721,7 +721,7 @@
     <t xml:space="preserve">Säure-Base-Reaktion, Protonenübertragung, Protonenübergang, Brönsted-Säure, Korrespondierendes Säure-Base-Paar </t>
   </si>
   <si>
-    <t xml:space="preserve">Saeure-Base-Reaktionen_aus_den_Teilchennamen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Saeure-Base-Reaktionen_aus_den_Teilchennamen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/acidbaser-online/index.html</t>
@@ -736,7 +736,7 @@
     <t xml:space="preserve">Molare Masse, Molares Volumen, Normvolumen, Avogadro-Konstante, Mol, Stöchiometrie </t>
   </si>
   <si>
-    <t xml:space="preserve">Stoechiometrie_ueber_Stoffmengenverhaeltnisse.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Stoechiometrie_ueber_Stoffmengenverhaeltnisse.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/stoffmengenverhaeltnisser/index.html</t>
@@ -751,7 +751,7 @@
     <t xml:space="preserve">Carbonylgruppe, Hydroxygruppe, Alkoxygruppe, Aminogruppe, Ester, Aldehyd, Keton, Ether, Carbamat, Harnstoff, Halbacetal, Vollacetal, Acetal, Halbketal, Vollketal, Ketal, Carbonsäureamid, Amid, Säureamid, Urethan, Halbaminal, Vollaminal, Aminal </t>
   </si>
   <si>
-    <t xml:space="preserve">Stoffklassen_sauerstoffhaltiger_organischer_Verbindungen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Stoffklassen_sauerstoffhaltiger_organischer_Verbindungen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/stoffklassenermittler-online/index.html</t>
@@ -766,7 +766,7 @@
     <t xml:space="preserve">Aromatische und aliphatische organische Säuren und Basen, Substituenteneffekte, Mesomerer Effekt, Induktiver Effekt, Elektronenschub, Elektronenzug, Mesomerie </t>
   </si>
   <si>
-    <t xml:space="preserve">Substituenteneffekte_bei_organischen_Saeuren.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Substituenteneffekte_bei_organischen_Saeuren.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/organische-saeuren-online/index.html</t>
@@ -781,7 +781,7 @@
     <t xml:space="preserve">Stickstoffdioxid-Distickstofftetroxid-Gleichgewicht, Temperaturabhngigkeit, endotherme Zerfallsreaktion, exotherme Bildungsreaktion </t>
   </si>
   <si>
-    <t xml:space="preserve">Temperaturabhaengigkeit_des_chemischen_Gleichgewichts.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Temperaturabhaengigkeit_des_chemischen_Gleichgewichts.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/gleichgewichttemperaturer-online/index.html</t>
@@ -796,7 +796,7 @@
     <t xml:space="preserve">Titration, Äquivalenzpunkt, Halbäquivalenzpunkt, Neutralpunkt, schwache Säuren, schwache Basen, Umschlagspunkt </t>
   </si>
   <si>
-    <t xml:space="preserve">Titration.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Titration.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/titrierer-online/index.html</t>
@@ -811,7 +811,7 @@
     <t xml:space="preserve">Alkan, Kohlenwasserstoffe, Verbrennung, Oxidation, Reaktionsgleichung, Koeffizienten ermitteln</t>
   </si>
   <si>
-    <t xml:space="preserve">Verbrennung_von_Alkanen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Verbrennung_von_Alkanen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/alkanverbrenner/index.html</t>
@@ -826,7 +826,7 @@
     <t xml:space="preserve">Summenformel, Verhältnisformel, Salze, Ionen, ionische Verbindungen, Koeffezienten, Indizes</t>
   </si>
   <si>
-    <t xml:space="preserve">Verhaeltnisformel_aufstellen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Verhaeltnisformel_aufstellen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/verhaeltnisformler.html</t>
@@ -841,7 +841,7 @@
     <t xml:space="preserve">Verhältnisformel, Salz, Summenformel, Index, Indizes, Koeffizient, Ladung, Ladungszahl, Oxidationszahl, Wertigkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Verhaeltnisformeln_aus_den_Namen_der_enthaltenen_Elemente_ermitteln.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Verhaeltnisformeln_aus_den_Namen_der_enthaltenen_Elemente_ermitteln.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/formulator-online/index.html</t>
@@ -856,7 +856,7 @@
     <t xml:space="preserve">Tensid, anionisches Tensid, kationisches Tensid, Waschmittelwirkung </t>
   </si>
   <si>
-    <t xml:space="preserve">Waschmittel_und_Tenside.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Waschmittel_und_Tenside.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/tensider-online/index.html</t>
@@ -871,7 +871,7 @@
     <t xml:space="preserve">Wasserstoffbrücken, Wasserstoffbindung, Wasserstoffbrückenbindung, Hydrogenbond, Hydrogenbridge, Zwischenmolekulare Kräfte, Kationische Wasserstoffbrückenbindungen, Elektronegativtätsdifferenz, Ladungsdichte</t>
   </si>
   <si>
-    <t xml:space="preserve">Wasserstoffbrueckenbindungen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Wasserstoffbrueckenbindungen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/wasserstoffbrueckenbinder/index.html</t>
@@ -886,7 +886,7 @@
     <t xml:space="preserve">Farbstoffklassen, Polymethin, Cyanine, Absorptionsmaximum, Wellenlänge, reflektiertes sichtbares Licht, Farbe, Farbvertiefung, konjugierte Systeme, Chromophor, bathochromer Effekt</t>
   </si>
   <si>
-    <t xml:space="preserve">Wellenlaengen_berechnen.png</t>
+    <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/Wellenlaengen_berechnen.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/wellenlaengenberechner/index.html</t>
@@ -901,7 +901,23 @@
     <t xml:space="preserve">Zwischenmolekulare Kräfte, Wasserstoffbrückenbindungen, Wasserstoffbrücken, Van-der-Waals-Kräfte, Dipol-Dipol-Wechselwirkungen </t>
   </si>
   <si>
-    <t xml:space="preserve">Zwischenmolekulare_Kraefte.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://chemie-lernprogramme.de/vorschaubilder/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Zwischenmolekulare_Kraefte.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://chemie-lernprogramme.de/daten/programme/js/zwischenmolekularer/index.html</t>
@@ -914,11 +930,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -937,6 +954,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -984,7 +1007,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -994,6 +1017,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1016,16 +1043,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="164.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="84.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="243.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="71.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="88.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="80.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.48"/>
@@ -2366,7 +2393,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>290</v>
       </c>
@@ -2376,7 +2403,7 @@
       <c r="C59" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="3" t="s">
         <v>293</v>
       </c>
       <c r="E59" s="0" t="s">
